--- a/output/20221116 Local Government Expenditures (1967-2012).xlsx
+++ b/output/20221116 Local Government Expenditures (1967-2012).xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chv7bg\Documents\Research\strong-towns\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC6158C-03AE-483B-A6CD-AFA7F2E3DA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2107FC18-AAE3-4973-B032-AEB2DB430B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Table" sheetId="2" r:id="rId2"/>
+    <sheet name="Highway" sheetId="2" r:id="rId2"/>
+    <sheet name="Sewerage" sheetId="3" r:id="rId3"/>
+    <sheet name="Water Supply" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Table!$A$1:$Y$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Highway!$A$1:$Y$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="26">
   <si>
     <t>Year4</t>
   </si>
@@ -74,9 +76,6 @@
   </si>
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Capital Outlay</t>
   </si>
   <si>
     <t>Current Operations</t>
@@ -120,12 +119,45 @@
       <t xml:space="preserve"> Dollar amounts are deflated to 2012 values based on the urban consumer price index.</t>
     </r>
   </si>
+  <si>
+    <t>Capital Outlays</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Dollar amounts are deflated to 2012 values based on the urban consumer price index. Highway spending includes</t>
+    </r>
+  </si>
+  <si>
+    <t>direct expenditures on both toll and regular highways.</t>
+  </si>
+  <si>
+    <t>Local Government Sewerage Expenditures</t>
+  </si>
+  <si>
+    <t>Local Government Water Supply Expenditures</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +193,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -191,12 +229,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -205,9 +240,16 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,7 +591,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,41 +1360,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A23EB88-D6B1-461C-94A4-AC38285CFBD4}">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="1.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="1.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="8" max="9" width="1.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="1.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="1.7109375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="6.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="1.7109375" style="4" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" style="4" customWidth="1"/>
-    <col min="23" max="23" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.85546875" style="4" customWidth="1"/>
-    <col min="25" max="25" width="1.7109375" style="4" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="2" width="1.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="1.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="8" max="9" width="1.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="1.7109375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" style="3" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="1.7109375" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1381,7 +1423,7 @@
     </row>
     <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1408,402 +1450,1416 @@
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
     </row>
-    <row r="4" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="R4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="R4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
     </row>
     <row r="5" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J6" s="2" t="s">
+    <row r="6" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="N6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="R6" s="2" t="s">
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="R6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="V6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="V6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
     </row>
     <row r="7" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>Sheet1!A11</f>
         <v>1972</v>
       </c>
-      <c r="G8" s="4" t="str">
+      <c r="G8" s="3" t="str">
         <f>Sheet1!C11</f>
         <v>Highway</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <f>Sheet1!D11</f>
         <v>1.71262494172209</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5">
+      <c r="L8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4">
         <f>Sheet1!E11</f>
         <v>3.4999526798614169</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" s="5">
+      <c r="S8" s="4">
         <f>Sheet1!F11</f>
         <v>50.477156936031761</v>
       </c>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="W8" s="5">
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W8" s="4">
         <f>Sheet1!G11</f>
         <v>103.15607135348949</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>Sheet1!A14</f>
         <v>1977</v>
       </c>
-      <c r="G9" s="4" t="str">
+      <c r="G9" s="3" t="str">
         <f>Sheet1!C14</f>
         <v>Highway</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <f>Sheet1!D14</f>
         <v>1.3089254483086159</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4">
         <f>Sheet1!E14</f>
         <v>3.2537477011057332</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4">
         <f>Sheet1!F14</f>
         <v>42.967439011692917</v>
       </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5">
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4">
         <f>Sheet1!G14</f>
         <v>106.80914339877179</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f>Sheet1!A17</f>
         <v>1982</v>
       </c>
-      <c r="G10" s="4" t="str">
+      <c r="G10" s="3" t="str">
         <f>Sheet1!C17</f>
         <v>Highway</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <f>Sheet1!D17</f>
         <v>1.3603321239477051</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4">
         <f>Sheet1!E17</f>
         <v>3.0739154184178821</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4">
         <f>Sheet1!F17</f>
         <v>42.916391460621163</v>
       </c>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5">
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4">
         <f>Sheet1!G17</f>
         <v>96.977315385909606</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>Sheet1!A20</f>
         <v>1987</v>
       </c>
-      <c r="G11" s="4" t="str">
+      <c r="G11" s="3" t="str">
         <f>Sheet1!C20</f>
         <v>Highway</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <f>Sheet1!D20</f>
         <v>1.2325268142915859</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4">
         <f>Sheet1!E20</f>
         <v>2.9483619329612969</v>
       </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4">
         <f>Sheet1!F20</f>
         <v>47.150321506763262</v>
       </c>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5">
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4">
         <f>Sheet1!G20</f>
         <v>112.78960542317201</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f>Sheet1!A23</f>
         <v>1992</v>
       </c>
-      <c r="G12" s="4" t="str">
+      <c r="G12" s="3" t="str">
         <f>Sheet1!C23</f>
         <v>Highway</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <f>Sheet1!D23</f>
         <v>1.1310957287934429</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4">
         <f>Sheet1!E23</f>
         <v>2.7059627250376148</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4">
         <f>Sheet1!F23</f>
         <v>46.83774016891509</v>
       </c>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5">
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4">
         <f>Sheet1!G23</f>
         <v>112.05168209527049</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f>Sheet1!A26</f>
         <v>1997</v>
       </c>
-      <c r="G13" s="4" t="str">
+      <c r="G13" s="3" t="str">
         <f>Sheet1!C26</f>
         <v>Highway</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <f>Sheet1!D26</f>
         <v>1.1997076559886839</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4">
         <f>Sheet1!E26</f>
         <v>2.5507386199960118</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4">
         <f>Sheet1!F26</f>
         <v>52.896952543211377</v>
       </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5">
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4">
         <f>Sheet1!G26</f>
         <v>112.465982073668</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f>Sheet1!A29</f>
         <v>2002</v>
       </c>
-      <c r="G14" s="4" t="str">
+      <c r="G14" s="3" t="str">
         <f>Sheet1!C29</f>
         <v>Highway</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <f>Sheet1!D29</f>
         <v>1.2865536242599089</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4">
         <f>Sheet1!E29</f>
         <v>2.525417553028662</v>
       </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4">
         <f>Sheet1!F29</f>
         <v>61.79217196175599</v>
       </c>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5">
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4">
         <f>Sheet1!G29</f>
         <v>121.293844865388</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f>Sheet1!A32</f>
         <v>2007</v>
       </c>
-      <c r="G15" s="4" t="str">
+      <c r="G15" s="3" t="str">
         <f>Sheet1!C32</f>
         <v>Highway</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <f>Sheet1!D32</f>
         <v>1.234850858294616</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4">
         <f>Sheet1!E32</f>
         <v>1.9134152818308161</v>
       </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4">
         <f>Sheet1!F32</f>
         <v>82.069836837531355</v>
       </c>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5">
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4">
         <f>Sheet1!G32</f>
         <v>127.1681344572774</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f>Sheet1!A35</f>
         <v>2012</v>
       </c>
-      <c r="G16" s="4" t="str">
+      <c r="G16" s="3" t="str">
         <f>Sheet1!C35</f>
         <v>Highway</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <f>Sheet1!D35</f>
         <v>1.205562941537613</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4">
         <f>Sheet1!E35</f>
         <v>1.957037634662212</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4">
         <f>Sheet1!F35</f>
         <v>74.693918615046186</v>
       </c>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5">
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4">
         <f>Sheet1!G35</f>
         <v>121.25356941015509</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>21</v>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="J4:P4"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="R4:X4"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="V6:X6"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A2:Y2"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="J4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B58B9D-7A99-4E66-B11F-A64AA40CD414}">
+  <dimension ref="A1:Y18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Y1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="1.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="9"/>
+    <col min="4" max="6" width="1.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="9"/>
+    <col min="8" max="9" width="1.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" style="9" customWidth="1"/>
+    <col min="14" max="14" width="7" style="9" customWidth="1"/>
+    <col min="15" max="15" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="9" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" style="9" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" style="9" customWidth="1"/>
+    <col min="21" max="21" width="1.7109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="9" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.7109375" style="9" customWidth="1"/>
+    <col min="25" max="25" width="1.7109375" style="9" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+    </row>
+    <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+    </row>
+    <row r="4" spans="1:25" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="R4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" spans="1:25" s="3" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:25" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="N6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="R6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="V6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+    </row>
+    <row r="7" spans="1:25" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+    </row>
+    <row r="8" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <f>Sheet1!A12</f>
+        <v>1972</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f>Sheet1!C12</f>
+        <v>Sewerage</v>
+      </c>
+      <c r="K8" s="4">
+        <f>Sheet1!D12</f>
+        <v>1.884285063919849</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4">
+        <f>Sheet1!E12</f>
+        <v>0.94113755761285012</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="4">
+        <f>Sheet1!F12</f>
+        <v>55.536592143790607</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W8" s="4">
+        <f>Sheet1!G12</f>
+        <v>27.738675898442189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <f>Sheet1!A15</f>
+        <v>1977</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f>Sheet1!C15</f>
+        <v>Sewerage</v>
+      </c>
+      <c r="K9" s="4">
+        <f>Sheet1!D15</f>
+        <v>2.2455882597431769</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4">
+        <f>Sheet1!E15</f>
+        <v>1.20784672386995</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4">
+        <f>Sheet1!F15</f>
+        <v>73.714799204621357</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4">
+        <f>Sheet1!G15</f>
+        <v>39.649378435125932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <f>Sheet1!A18</f>
+        <v>1982</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f>Sheet1!C18</f>
+        <v>Sewerage</v>
+      </c>
+      <c r="K10" s="4">
+        <f>Sheet1!D18</f>
+        <v>1.7280345586144821</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4">
+        <f>Sheet1!E18</f>
+        <v>1.5492951704081639</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4">
+        <f>Sheet1!F18</f>
+        <v>54.516839137610283</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4">
+        <f>Sheet1!G18</f>
+        <v>48.87788566539988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <f>Sheet1!A21</f>
+        <v>1987</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f>Sheet1!C21</f>
+        <v>Sewerage</v>
+      </c>
+      <c r="K11" s="4">
+        <f>Sheet1!D21</f>
+        <v>1.4331688487472301</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4">
+        <f>Sheet1!E21</f>
+        <v>1.6243472861364019</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4">
+        <f>Sheet1!F21</f>
+        <v>54.825883873974043</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4">
+        <f>Sheet1!G21</f>
+        <v>62.139416272245732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <f>Sheet1!A24</f>
+        <v>1992</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f>Sheet1!C24</f>
+        <v>Sewerage</v>
+      </c>
+      <c r="K12" s="4">
+        <f>Sheet1!D24</f>
+        <v>1.1921862367548179</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4">
+        <f>Sheet1!E24</f>
+        <v>1.7621811603979529</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4">
+        <f>Sheet1!F24</f>
+        <v>49.367447660370438</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4">
+        <f>Sheet1!G24</f>
+        <v>72.970466796227441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <f>Sheet1!A27</f>
+        <v>1997</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f>Sheet1!C27</f>
+        <v>Sewerage</v>
+      </c>
+      <c r="K13" s="4">
+        <f>Sheet1!D27</f>
+        <v>0.96646762763201155</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4">
+        <f>Sheet1!E27</f>
+        <v>1.872128225260278</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4">
+        <f>Sheet1!F27</f>
+        <v>42.613041584093082</v>
+      </c>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4">
+        <f>Sheet1!G27</f>
+        <v>82.545007854258131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <f>Sheet1!A30</f>
+        <v>2002</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f>Sheet1!C30</f>
+        <v>Sewerage</v>
+      </c>
+      <c r="K14" s="4">
+        <f>Sheet1!D30</f>
+        <v>0.88493815716236379</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4">
+        <f>Sheet1!E30</f>
+        <v>1.7585464369690049</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4">
+        <f>Sheet1!F30</f>
+        <v>42.502892807404137</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4">
+        <f>Sheet1!G30</f>
+        <v>84.461620399562676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <f>Sheet1!A33</f>
+        <v>2007</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f>Sheet1!C33</f>
+        <v>Sewerage</v>
+      </c>
+      <c r="K15" s="4">
+        <f>Sheet1!D33</f>
+        <v>0.946896431617958</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4">
+        <f>Sheet1!E33</f>
+        <v>1.4396429786445231</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4">
+        <f>Sheet1!F33</f>
+        <v>62.932001158625503</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4">
+        <f>Sheet1!G33</f>
+        <v>95.680594598141028</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <f>Sheet1!A36</f>
+        <v>2012</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f>Sheet1!C36</f>
+        <v>Sewerage</v>
+      </c>
+      <c r="K16" s="4">
+        <f>Sheet1!D36</f>
+        <v>1.0477406870410439</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4">
+        <f>Sheet1!E36</f>
+        <v>1.590943676050691</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4">
+        <f>Sheet1!F36</f>
+        <v>64.915613205314017</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4">
+        <f>Sheet1!G36</f>
+        <v>98.571226242645039</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="V6:X6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBFB18F-ECBA-4845-A636-C64C5A269F97}">
+  <dimension ref="A1:Y18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Y1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="1.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="1.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="1.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" style="9" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" style="9" customWidth="1"/>
+    <col min="18" max="18" width="6" style="9" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" style="9" customWidth="1"/>
+    <col min="21" max="21" width="1.7109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="7" style="9" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" style="9" customWidth="1"/>
+    <col min="25" max="25" width="1.7109375" style="9" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+    </row>
+    <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+    </row>
+    <row r="4" spans="1:25" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="R4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" spans="1:25" s="3" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:25" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="N6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="R6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="V6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+    </row>
+    <row r="7" spans="1:25" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+    </row>
+    <row r="8" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <f>Sheet1!A13</f>
+        <v>1972</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f>Sheet1!C13</f>
+        <v>Water Supply</v>
+      </c>
+      <c r="K8" s="4">
+        <f>Sheet1!D13</f>
+        <v>1.080740867444669</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4">
+        <f>Sheet1!E13</f>
+        <v>1.7088818796056731</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="4">
+        <f>Sheet1!F13</f>
+        <v>31.853282668144189</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W8" s="4">
+        <f>Sheet1!G13</f>
+        <v>50.366835563693421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <f>Sheet1!A16</f>
+        <v>1977</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f>Sheet1!C16</f>
+        <v>Water Supply</v>
+      </c>
+      <c r="K9" s="4">
+        <f>Sheet1!D16</f>
+        <v>0.92644848170361738</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4">
+        <f>Sheet1!E16</f>
+        <v>1.8571741712888079</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4">
+        <f>Sheet1!F16</f>
+        <v>30.412059515317821</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4">
+        <f>Sheet1!G16</f>
+        <v>60.964524787914868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <f>Sheet1!A19</f>
+        <v>1982</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f>Sheet1!C19</f>
+        <v>Water Supply</v>
+      </c>
+      <c r="K10" s="4">
+        <f>Sheet1!D19</f>
+        <v>1.0700181829368429</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4">
+        <f>Sheet1!E19</f>
+        <v>2.0886212177680772</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4">
+        <f>Sheet1!F19</f>
+        <v>33.757432027434369</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4">
+        <f>Sheet1!G19</f>
+        <v>65.892795014329835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <f>Sheet1!A22</f>
+        <v>1987</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f>Sheet1!C22</f>
+        <v>Water Supply</v>
+      </c>
+      <c r="K11" s="4">
+        <f>Sheet1!D22</f>
+        <v>1.1107445283028909</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4">
+        <f>Sheet1!E22</f>
+        <v>2.161803697164502</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4">
+        <f>Sheet1!F22</f>
+        <v>42.491539343475502</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4">
+        <f>Sheet1!G22</f>
+        <v>82.699814863177195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <f>Sheet1!A25</f>
+        <v>1992</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f>Sheet1!C25</f>
+        <v>Water Supply</v>
+      </c>
+      <c r="K12" s="4">
+        <f>Sheet1!D25</f>
+        <v>0.98183041761223155</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4">
+        <f>Sheet1!E25</f>
+        <v>2.1415331333440828</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4">
+        <f>Sheet1!F25</f>
+        <v>40.656786883205569</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4">
+        <f>Sheet1!G25</f>
+        <v>88.679118760079831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <f>Sheet1!A28</f>
+        <v>1997</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f>Sheet1!C28</f>
+        <v>Water Supply</v>
+      </c>
+      <c r="K13" s="4">
+        <f>Sheet1!D28</f>
+        <v>0.88853029715118925</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4">
+        <f>Sheet1!E28</f>
+        <v>2.2186543808656598</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4">
+        <f>Sheet1!F28</f>
+        <v>39.176665020845128</v>
+      </c>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4">
+        <f>Sheet1!G28</f>
+        <v>97.823878099470804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <f>Sheet1!A31</f>
+        <v>2002</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f>Sheet1!C31</f>
+        <v>Water Supply</v>
+      </c>
+      <c r="K14" s="4">
+        <f>Sheet1!D31</f>
+        <v>0.90033660761821266</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4">
+        <f>Sheet1!E31</f>
+        <v>2.179815050963434</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4">
+        <f>Sheet1!F31</f>
+        <v>43.242468430658668</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4">
+        <f>Sheet1!G31</f>
+        <v>104.6948249447745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <f>Sheet1!A34</f>
+        <v>2007</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f>Sheet1!C34</f>
+        <v>Water Supply</v>
+      </c>
+      <c r="K15" s="4">
+        <f>Sheet1!D34</f>
+        <v>0.93992855300565825</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4">
+        <f>Sheet1!E34</f>
+        <v>1.748361388757885</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4">
+        <f>Sheet1!F34</f>
+        <v>62.468906642414112</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4">
+        <f>Sheet1!G34</f>
+        <v>116.19843234069759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <f>Sheet1!A37</f>
+        <v>2012</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f>Sheet1!C37</f>
+        <v>Water Supply</v>
+      </c>
+      <c r="K16" s="4">
+        <f>Sheet1!D37</f>
+        <v>0.82343182513509527</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4">
+        <f>Sheet1!E37</f>
+        <v>1.945384272982678</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4">
+        <f>Sheet1!F37</f>
+        <v>51.017949882594998</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4">
+        <f>Sheet1!G37</f>
+        <v>120.53155381155629</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>